--- a/line_bots.xlsx
+++ b/line_bots.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Basic ID</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>6P+4Tcl/3CzrEGRrtxUHpG3DOBejBIN6hKhhlnaskpAHXd9abpXBKhI06mWzOlDM8rQO7KnrebXGNMWwXylF9T5iJLH/B1AJ+Yj5LxmhWUevkhZx/NDBtRcwD+jDS2ECYgF6pHopfdqaynDTJi3oNQdB04t89/1O/w1cDnyilFU=</t>
+  </si>
+  <si>
+    <t>@050hbbup</t>
+  </si>
+  <si>
+    <t>2007078925</t>
+  </si>
+  <si>
+    <t>e91f15a276f69f3b23ab07ba39cf4a59</t>
+  </si>
+  <si>
+    <t>8JTCGWCGjicNFEIZRx1jOzhHpXJYgLA+nA469xyRPV4HduVlU8Qu2AH9cCQB8jx5gule0naNy+uZgRTZnZ2at68+Ya9bO8s7QbImgY/xW1s7Y0yAOSR6RqR8OPeEnA32Uu5sUvkaB0aZhLYGvbCO6gdB04t89/1O/w1cDnyilFU=</t>
+  </si>
+  <si>
+    <t>@197cnzsp</t>
+  </si>
+  <si>
+    <t>2007078933</t>
+  </si>
+  <si>
+    <t>4405b83d6d80fa040f615f18ac2e1b52</t>
+  </si>
+  <si>
+    <t>yUexmi/PxO6H7OMOPw8DkiLzi74ex4+BuHJtCu9Q13lIHtUAlW4limca7lP9qWSj242yH0/XJSi7XuMAYm/a/wskTm0nKjVsRJsWpJrSoBw6IgSgAHRm5cncYIVPnGAIxZ2Fo5pafE+fibDgrbUE/QdB04t89/1O/w1cDnyilFU=</t>
   </si>
 </sst>
 </file>
@@ -152,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -243,6 +267,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/line_bots.xlsx
+++ b/line_bots.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Basic ID</t>
   </si>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t>yUexmi/PxO6H7OMOPw8DkiLzi74ex4+BuHJtCu9Q13lIHtUAlW4limca7lP9qWSj242yH0/XJSi7XuMAYm/a/wskTm0nKjVsRJsWpJrSoBw6IgSgAHRm5cncYIVPnGAIxZ2Fo5pafE+fibDgrbUE/QdB04t89/1O/w1cDnyilFU=</t>
+  </si>
+  <si>
+    <t>@905wtryb</t>
+  </si>
+  <si>
+    <t>2007079210</t>
+  </si>
+  <si>
+    <t>6226a8873b398ca2494be04ff87109d2</t>
+  </si>
+  <si>
+    <t>AVhgn2XSv5PbHFm6SwDe+aCa06COp8skDlKPgQNBVUfSIM0B5aMLI3q5W5aNwSPIhBJwyNHnbZc6lzeJDp/Vo8i+jjCDI0dw9E7lvpi1x3g581MnH6r8qkiYokuGQcisBLAMlb0RIKhzcOEWxbByBwdB04t89/1O/w1cDnyilFU=</t>
+  </si>
+  <si>
+    <t>@548omese</t>
+  </si>
+  <si>
+    <t>2007079221</t>
+  </si>
+  <si>
+    <t>3506a868e95f07fb4c06998615f42b4e</t>
+  </si>
+  <si>
+    <t>p3bikSbx7Q+ymPUBtBEq1CrsSGPndXgA1jOGH2Sr+9/1TUP9hLL6EF28GtqSpqimRw7qJ5PLyNiBCb8xvU+5t72HDz/tNtDTC81gTD6tVLlhpq/MwJoGtFIaP4MfzYuVqVx7nazcTXp4WuQBh1rF0wdB04t89/1O/w1cDnyilFU=</t>
   </si>
 </sst>
 </file>
@@ -176,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -301,6 +325,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
